--- a/Hardware/ListaDeMateriais.xlsx
+++ b/Hardware/ListaDeMateriais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubAdri\AquaboxEsp32\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4FB8B-757D-4D56-AABE-B474711C5570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0934D0A-1AB4-4113-8A2D-61B4C230A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9DBD4FF-7197-431E-BDDE-5BC2C9B078F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Mão de obra</t>
+  </si>
+  <si>
+    <t>Sensor de nível de água</t>
+  </si>
+  <si>
+    <t>(só o básico)</t>
   </si>
 </sst>
 </file>
@@ -364,7 +370,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -397,6 +402,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -712,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC46C19C-CD06-4871-8580-887F464FF44B}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,31 +734,32 @@
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -766,7 +773,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -792,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -821,7 +828,7 @@
         <v>236.55300000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -850,7 +857,7 @@
         <v>105.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -879,7 +886,7 @@
         <v>82.910999999999987</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -907,7 +914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>5</v>
       </c>
@@ -928,7 +935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -944,12 +951,12 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>7</v>
       </c>
@@ -965,12 +972,12 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -986,22 +993,41 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="E13" s="10">
+        <f>D13*6</f>
+        <v>44.400000000000006</v>
+      </c>
+      <c r="F13" s="10">
+        <f>0.45*E13</f>
+        <v>19.980000000000004</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <f>E13+F13+G13</f>
+        <v>64.38000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -1009,24 +1035,31 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <f>SUM(H5:H14)</f>
-        <v>732.71399999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>797.09399999999994</v>
+      </c>
+      <c r="I15" s="41">
+        <f>H5+H6+H7+H8+H13</f>
+        <v>561.09400000000005</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -1034,19 +1067,19 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="28"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>700</v>
       </c>
     </row>
